--- a/xlsx/country_comparison/split_main_means_nolegend.xlsx
+++ b/xlsx/country_comparison/split_main_means_nolegend.xlsx
@@ -440,10 +440,10 @@
         <v>17.4751101420005</v>
       </c>
       <c r="C2" t="n">
-        <v>17.1259277030028</v>
+        <v>17.1125284231691</v>
       </c>
       <c r="D2" t="n">
-        <v>17.8242925809982</v>
+        <v>17.8376918608319</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -457,10 +457,10 @@
         <v>18.6743117629875</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1268503128204</v>
+        <v>18.1058424145137</v>
       </c>
       <c r="D3" t="n">
-        <v>19.2217732131546</v>
+        <v>19.2427811114614</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -644,10 +644,10 @@
         <v>25.8210813552222</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4362820457197</v>
+        <v>25.4215160292996</v>
       </c>
       <c r="D14" t="n">
-        <v>26.2058806647247</v>
+        <v>26.2206466811448</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -661,10 +661,10 @@
         <v>28.6687645878041</v>
       </c>
       <c r="C15" t="n">
-        <v>28.0747506351744</v>
+        <v>28.0519563640785</v>
       </c>
       <c r="D15" t="n">
-        <v>29.2627785404339</v>
+        <v>29.2855728115298</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -848,10 +848,10 @@
         <v>26.8910533097182</v>
       </c>
       <c r="C26" t="n">
-        <v>26.3046581298963</v>
+        <v>26.2821562161971</v>
       </c>
       <c r="D26" t="n">
-        <v>27.4774484895402</v>
+        <v>27.4999504032393</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -865,10 +865,10 @@
         <v>27.8767606881523</v>
       </c>
       <c r="C27" t="n">
-        <v>26.9902710449143</v>
+        <v>26.9562535186218</v>
       </c>
       <c r="D27" t="n">
-        <v>28.7632503313903</v>
+        <v>28.7972678576828</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -1052,10 +1052,10 @@
         <v>18.5820802110275</v>
       </c>
       <c r="C38" t="n">
-        <v>17.9840311433425</v>
+        <v>17.9610820315967</v>
       </c>
       <c r="D38" t="n">
-        <v>19.1801292787125</v>
+        <v>19.2030783904583</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1069,10 +1069,10 @@
         <v>19.5433388869069</v>
       </c>
       <c r="C39" t="n">
-        <v>18.6474730726575</v>
+        <v>18.6130957518132</v>
       </c>
       <c r="D39" t="n">
-        <v>20.4392047011564</v>
+        <v>20.4735820220007</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1256,10 +1256,10 @@
         <v>18.2775615098406</v>
       </c>
       <c r="C50" t="n">
-        <v>17.7244131752472</v>
+        <v>17.7031870524615</v>
       </c>
       <c r="D50" t="n">
-        <v>18.830709844434</v>
+        <v>18.8519359672198</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1273,10 +1273,10 @@
         <v>18.6833061988999</v>
       </c>
       <c r="C51" t="n">
-        <v>17.8698755912076</v>
+        <v>17.8386615806488</v>
       </c>
       <c r="D51" t="n">
-        <v>19.4967368065923</v>
+        <v>19.527950817151</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1460,10 +1460,10 @@
         <v>16.7238653560827</v>
       </c>
       <c r="C62" t="n">
-        <v>16.1869402724746</v>
+        <v>16.1663366892426</v>
       </c>
       <c r="D62" t="n">
-        <v>17.2607904396908</v>
+        <v>17.2813940229227</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1477,10 +1477,10 @@
         <v>16.4332355712248</v>
       </c>
       <c r="C63" t="n">
-        <v>15.6408429482219</v>
+        <v>15.6104362344012</v>
       </c>
       <c r="D63" t="n">
-        <v>17.2256281942277</v>
+        <v>17.2560349080484</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1664,10 +1664,10 @@
         <v>16.2417157402536</v>
       </c>
       <c r="C74" t="n">
-        <v>15.7287693003248</v>
+        <v>15.7090858565982</v>
       </c>
       <c r="D74" t="n">
-        <v>16.7546621801824</v>
+        <v>16.774345623909</v>
       </c>
       <c r="E74" t="s">
         <v>23</v>
@@ -1681,10 +1681,10 @@
         <v>17.2041871605458</v>
       </c>
       <c r="C75" t="n">
-        <v>16.4554125885557</v>
+        <v>16.4266796429606</v>
       </c>
       <c r="D75" t="n">
-        <v>17.9529617325359</v>
+        <v>17.9816946781311</v>
       </c>
       <c r="E75" t="s">
         <v>23</v>

--- a/xlsx/country_comparison/split_main_means_nolegend.xlsx
+++ b/xlsx/country_comparison/split_main_means_nolegend.xlsx
@@ -437,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>17.4751101420005</v>
+        <v>17.4778628081766</v>
       </c>
       <c r="C2" t="n">
-        <v>17.1125284231691</v>
+        <v>17.1175986105978</v>
       </c>
       <c r="D2" t="n">
-        <v>17.8376918608319</v>
+        <v>17.8381270057554</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -457,10 +457,10 @@
         <v>18.6743117629875</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1058424145137</v>
+        <v>18.1092138950899</v>
       </c>
       <c r="D3" t="n">
-        <v>19.2427811114614</v>
+        <v>19.2394096308851</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -590,13 +590,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>13.9270974176023</v>
+        <v>13.9286135866664</v>
       </c>
       <c r="C11" t="n">
-        <v>13.231857145162</v>
+        <v>13.2333145854194</v>
       </c>
       <c r="D11" t="n">
-        <v>14.6223376900425</v>
+        <v>14.6239125879133</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -624,13 +624,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2982665049628</v>
+        <v>17.3020839614069</v>
       </c>
       <c r="C13" t="n">
-        <v>16.6235747663067</v>
+        <v>16.6285285100235</v>
       </c>
       <c r="D13" t="n">
-        <v>17.9729582436189</v>
+        <v>17.9756394127904</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -641,13 +641,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>25.8210813552222</v>
+        <v>25.8176804364833</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4215160292996</v>
+        <v>25.4207830126572</v>
       </c>
       <c r="D14" t="n">
-        <v>26.2206466811448</v>
+        <v>26.2145778603093</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -661,10 +661,10 @@
         <v>28.6687645878041</v>
       </c>
       <c r="C15" t="n">
-        <v>28.0519563640785</v>
+        <v>28.0556145330742</v>
       </c>
       <c r="D15" t="n">
-        <v>29.2855728115298</v>
+        <v>29.2819146425341</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -794,13 +794,13 @@
         <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>24.9631171634748</v>
+        <v>24.9676333375889</v>
       </c>
       <c r="C23" t="n">
-        <v>24.0951446193562</v>
+        <v>24.0996816084345</v>
       </c>
       <c r="D23" t="n">
-        <v>25.8310897075933</v>
+        <v>25.8355850667434</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
@@ -828,13 +828,13 @@
         <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>23.199420167316</v>
+        <v>23.1977463905367</v>
       </c>
       <c r="C25" t="n">
-        <v>22.4842622240275</v>
+        <v>22.4841233151793</v>
       </c>
       <c r="D25" t="n">
-        <v>23.9145781106045</v>
+        <v>23.9113694658941</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -845,13 +845,13 @@
         <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>26.8910533097182</v>
+        <v>26.888852791522</v>
       </c>
       <c r="C26" t="n">
-        <v>26.2821562161971</v>
+        <v>26.2840599100719</v>
       </c>
       <c r="D26" t="n">
-        <v>27.4999504032393</v>
+        <v>27.4936456729721</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -865,10 +865,10 @@
         <v>27.8767606881523</v>
       </c>
       <c r="C27" t="n">
-        <v>26.9562535186218</v>
+        <v>26.9617128666953</v>
       </c>
       <c r="D27" t="n">
-        <v>28.7972678576828</v>
+        <v>28.7918085096094</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -998,13 +998,13 @@
         <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>23.7908502085689</v>
+        <v>23.7925359976382</v>
       </c>
       <c r="C35" t="n">
-        <v>22.4515983592549</v>
+        <v>22.4533074894758</v>
       </c>
       <c r="D35" t="n">
-        <v>25.1301020578828</v>
+        <v>25.1317645058005</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
@@ -1032,13 +1032,13 @@
         <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>26.3931347460975</v>
+        <v>26.3869099551691</v>
       </c>
       <c r="C37" t="n">
-        <v>25.2612221216578</v>
+        <v>25.2573013744177</v>
       </c>
       <c r="D37" t="n">
-        <v>27.5250473705372</v>
+        <v>27.5165185359205</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -1049,13 +1049,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>18.5820802110275</v>
+        <v>18.5840386333021</v>
       </c>
       <c r="C38" t="n">
-        <v>17.9610820315967</v>
+        <v>17.9671758541937</v>
       </c>
       <c r="D38" t="n">
-        <v>19.2030783904583</v>
+        <v>19.2009014124105</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1069,10 +1069,10 @@
         <v>19.5433388869069</v>
       </c>
       <c r="C39" t="n">
-        <v>18.6130957518132</v>
+        <v>18.6186128419952</v>
       </c>
       <c r="D39" t="n">
-        <v>20.4735820220007</v>
+        <v>20.4680649318187</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1202,13 +1202,13 @@
         <v>15</v>
       </c>
       <c r="B47" t="n">
-        <v>14.7168447541269</v>
+        <v>14.7145599857929</v>
       </c>
       <c r="C47" t="n">
-        <v>13.4209871674259</v>
+        <v>13.4191286852481</v>
       </c>
       <c r="D47" t="n">
-        <v>16.0127023408278</v>
+        <v>16.0099912863377</v>
       </c>
       <c r="E47" t="s">
         <v>20</v>
@@ -1236,13 +1236,13 @@
         <v>17</v>
       </c>
       <c r="B49" t="n">
-        <v>18.8157927911583</v>
+        <v>18.8176682846185</v>
       </c>
       <c r="C49" t="n">
-        <v>17.6403476591454</v>
+        <v>17.6445715829381</v>
       </c>
       <c r="D49" t="n">
-        <v>19.9912379231713</v>
+        <v>19.9907649862988</v>
       </c>
       <c r="E49" t="s">
         <v>20</v>
@@ -1253,13 +1253,13 @@
         <v>5</v>
       </c>
       <c r="B50" t="n">
-        <v>18.2775615098406</v>
+        <v>18.2790863468141</v>
       </c>
       <c r="C50" t="n">
-        <v>17.7031870524615</v>
+        <v>17.7086767334779</v>
       </c>
       <c r="D50" t="n">
-        <v>18.8519359672198</v>
+        <v>18.8494959601504</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1273,10 +1273,10 @@
         <v>18.6833061988999</v>
       </c>
       <c r="C51" t="n">
-        <v>17.8386615806488</v>
+        <v>17.8436710027609</v>
       </c>
       <c r="D51" t="n">
-        <v>19.527950817151</v>
+        <v>19.5229413950389</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1406,13 +1406,13 @@
         <v>15</v>
       </c>
       <c r="B59" t="n">
-        <v>17.7046170722847</v>
+        <v>17.7049808040103</v>
       </c>
       <c r="C59" t="n">
-        <v>16.2814564695656</v>
+        <v>16.2815627940052</v>
       </c>
       <c r="D59" t="n">
-        <v>19.1277776750038</v>
+        <v>19.1283988140154</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -1440,13 +1440,13 @@
         <v>17</v>
       </c>
       <c r="B61" t="n">
-        <v>17.7105595537485</v>
+        <v>17.7140126023854</v>
       </c>
       <c r="C61" t="n">
-        <v>16.6580680312493</v>
+        <v>16.6641188900468</v>
       </c>
       <c r="D61" t="n">
-        <v>18.7630510762478</v>
+        <v>18.763906314724</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
@@ -1457,13 +1457,13 @@
         <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>16.7238653560827</v>
+        <v>16.7223157348188</v>
       </c>
       <c r="C62" t="n">
-        <v>16.1663366892426</v>
+        <v>16.1687738455109</v>
       </c>
       <c r="D62" t="n">
-        <v>17.2813940229227</v>
+        <v>17.2758576241267</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1477,10 +1477,10 @@
         <v>16.4332355712248</v>
       </c>
       <c r="C63" t="n">
-        <v>15.6104362344012</v>
+        <v>15.6153160964197</v>
       </c>
       <c r="D63" t="n">
-        <v>17.2560349080484</v>
+        <v>17.2511550460299</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1610,13 +1610,13 @@
         <v>15</v>
       </c>
       <c r="B71" t="n">
-        <v>15.9777699018776</v>
+        <v>15.9779234610467</v>
       </c>
       <c r="C71" t="n">
-        <v>14.5513217520748</v>
+        <v>14.5525384282777</v>
       </c>
       <c r="D71" t="n">
-        <v>17.4042180516803</v>
+        <v>17.4033084938156</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -1644,13 +1644,13 @@
         <v>17</v>
       </c>
       <c r="B73" t="n">
-        <v>16.7227830705548</v>
+        <v>16.7126947567179</v>
       </c>
       <c r="C73" t="n">
-        <v>15.7159079400233</v>
+        <v>15.7084970354776</v>
       </c>
       <c r="D73" t="n">
-        <v>17.7296582010863</v>
+        <v>17.7168924779581</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -1661,13 +1661,13 @@
         <v>5</v>
       </c>
       <c r="B74" t="n">
-        <v>16.2417157402536</v>
+        <v>16.2405917484416</v>
       </c>
       <c r="C74" t="n">
-        <v>15.7090858565982</v>
+        <v>15.7116001581493</v>
       </c>
       <c r="D74" t="n">
-        <v>16.774345623909</v>
+        <v>16.7695833387339</v>
       </c>
       <c r="E74" t="s">
         <v>23</v>
@@ -1681,10 +1681,10 @@
         <v>17.2041871605458</v>
       </c>
       <c r="C75" t="n">
-        <v>16.4266796429606</v>
+        <v>16.4312908880532</v>
       </c>
       <c r="D75" t="n">
-        <v>17.9816946781311</v>
+        <v>17.9770834330384</v>
       </c>
       <c r="E75" t="s">
         <v>23</v>
@@ -1814,13 +1814,13 @@
         <v>15</v>
       </c>
       <c r="B83" t="n">
-        <v>14.0631639305587</v>
+        <v>14.0638042866307</v>
       </c>
       <c r="C83" t="n">
-        <v>12.9038024384704</v>
+        <v>12.9045274456188</v>
       </c>
       <c r="D83" t="n">
-        <v>15.2225254226469</v>
+        <v>15.2230811276426</v>
       </c>
       <c r="E83" t="s">
         <v>23</v>
@@ -1848,13 +1848,13 @@
         <v>17</v>
       </c>
       <c r="B85" t="n">
-        <v>15.5582453607054</v>
+        <v>15.5556817545784</v>
       </c>
       <c r="C85" t="n">
-        <v>14.5415476275498</v>
+        <v>14.5412204070847</v>
       </c>
       <c r="D85" t="n">
-        <v>16.574943093861</v>
+        <v>16.570143102072</v>
       </c>
       <c r="E85" t="s">
         <v>23</v>

--- a/xlsx/country_comparison/split_main_means_nolegend.xlsx
+++ b/xlsx/country_comparison/split_main_means_nolegend.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -440,10 +437,10 @@
         <v>17.4778628081766</v>
       </c>
       <c r="C2" t="n">
-        <v>17.1175986105978</v>
+        <v>17.1175085633068</v>
       </c>
       <c r="D2" t="n">
-        <v>17.8381270057554</v>
+        <v>17.8382170530464</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -457,10 +454,10 @@
         <v>18.6743117629875</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1092138950899</v>
+        <v>18.1090726500468</v>
       </c>
       <c r="D3" t="n">
-        <v>19.2394096308851</v>
+        <v>19.2395508759282</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -607,13 +604,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9468538366264</v>
+        <v>17.3020839614069</v>
       </c>
       <c r="C12" t="n">
-        <v>19.9315344407993</v>
+        <v>16.6285285100235</v>
       </c>
       <c r="D12" t="n">
-        <v>21.9621732324535</v>
+        <v>17.9756394127904</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -621,203 +618,203 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25.8176804364833</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25.4206838089672</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26.2146770639993</v>
+      </c>
+      <c r="E13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="n">
-        <v>17.3020839614069</v>
-      </c>
-      <c r="C13" t="n">
-        <v>16.6285285100235</v>
-      </c>
-      <c r="D13" t="n">
-        <v>17.9756394127904</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>25.8176804364833</v>
+        <v>28.6687645878041</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4207830126572</v>
+        <v>28.0554612774864</v>
       </c>
       <c r="D14" t="n">
-        <v>26.2145778603093</v>
+        <v>29.2820678981219</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="n">
-        <v>28.6687645878041</v>
+        <v>28.2405220667589</v>
       </c>
       <c r="C15" t="n">
-        <v>28.0556145330742</v>
+        <v>26.8257366114272</v>
       </c>
       <c r="D15" t="n">
-        <v>29.2819146425341</v>
+        <v>29.6553075220906</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="n">
-        <v>28.2405220667589</v>
+        <v>28.1341163074923</v>
       </c>
       <c r="C16" t="n">
-        <v>26.8257366114272</v>
+        <v>26.8557798419464</v>
       </c>
       <c r="D16" t="n">
-        <v>29.6553075220906</v>
+        <v>29.4124527730382</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
-        <v>28.1341163074923</v>
+        <v>26.7831696488847</v>
       </c>
       <c r="C17" t="n">
-        <v>26.8557798419464</v>
+        <v>25.2988047281253</v>
       </c>
       <c r="D17" t="n">
-        <v>29.4124527730382</v>
+        <v>28.2675345696441</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="n">
-        <v>26.7831696488847</v>
+        <v>27.1533761976075</v>
       </c>
       <c r="C18" t="n">
-        <v>25.2988047281253</v>
+        <v>25.4291815584187</v>
       </c>
       <c r="D18" t="n">
-        <v>28.2675345696441</v>
+        <v>28.8775708367963</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>27.1533761976075</v>
+        <v>31.8883460760912</v>
       </c>
       <c r="C19" t="n">
-        <v>25.4291815584187</v>
+        <v>30.191726604158</v>
       </c>
       <c r="D19" t="n">
-        <v>28.8775708367963</v>
+        <v>33.5849655480244</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="n">
-        <v>31.8883460760912</v>
+        <v>30.27503644968</v>
       </c>
       <c r="C20" t="n">
-        <v>30.191726604158</v>
+        <v>28.8166498489646</v>
       </c>
       <c r="D20" t="n">
-        <v>33.5849655480244</v>
+        <v>31.7334230503953</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="n">
-        <v>30.27503644968</v>
+        <v>26.9055230286109</v>
       </c>
       <c r="C21" t="n">
-        <v>28.8166498489646</v>
+        <v>25.1982188740622</v>
       </c>
       <c r="D21" t="n">
-        <v>31.7334230503953</v>
+        <v>28.6128271831596</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="n">
-        <v>26.9055230286109</v>
+        <v>24.9676333375889</v>
       </c>
       <c r="C22" t="n">
-        <v>25.1982188740622</v>
+        <v>24.0996816084345</v>
       </c>
       <c r="D22" t="n">
-        <v>28.6128271831596</v>
+        <v>25.8355850667434</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>24.9676333375889</v>
+        <v>23.1977463905367</v>
       </c>
       <c r="C23" t="n">
-        <v>24.0996816084345</v>
+        <v>22.4841233151793</v>
       </c>
       <c r="D23" t="n">
-        <v>25.8355850667434</v>
+        <v>23.9113694658941</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>23.7822817741879</v>
+        <v>26.888852791522</v>
       </c>
       <c r="C24" t="n">
-        <v>22.6789302221682</v>
+        <v>26.2839087433422</v>
       </c>
       <c r="D24" t="n">
-        <v>24.8856333262076</v>
+        <v>27.4937968397017</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -825,16 +822,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>23.1977463905367</v>
+        <v>27.8767606881523</v>
       </c>
       <c r="C25" t="n">
-        <v>22.4841233151793</v>
+        <v>26.9614841523851</v>
       </c>
       <c r="D25" t="n">
-        <v>23.9113694658941</v>
+        <v>28.7920372239195</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -842,169 +839,169 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>26.888852791522</v>
+        <v>26.6311851475846</v>
       </c>
       <c r="C26" t="n">
-        <v>26.2840599100719</v>
+        <v>24.4936853417207</v>
       </c>
       <c r="D26" t="n">
-        <v>27.4936456729721</v>
+        <v>28.7686849534485</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B27" t="n">
-        <v>27.8767606881523</v>
+        <v>29.6140991797367</v>
       </c>
       <c r="C27" t="n">
-        <v>26.9617128666953</v>
+        <v>27.7227795100033</v>
       </c>
       <c r="D27" t="n">
-        <v>28.7918085096094</v>
+        <v>31.5054188494702</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B28" t="n">
-        <v>26.6311851475846</v>
+        <v>27.8209875485043</v>
       </c>
       <c r="C28" t="n">
-        <v>24.4936853417207</v>
+        <v>25.7257173952682</v>
       </c>
       <c r="D28" t="n">
-        <v>28.7686849534485</v>
+        <v>29.9162577017405</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B29" t="n">
-        <v>29.6140991797367</v>
+        <v>27.6818037493275</v>
       </c>
       <c r="C29" t="n">
-        <v>27.7227795100033</v>
+        <v>24.8377467837505</v>
       </c>
       <c r="D29" t="n">
-        <v>31.5054188494702</v>
+        <v>30.5258607149045</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B30" t="n">
-        <v>27.8209875485043</v>
+        <v>27.893502949829</v>
       </c>
       <c r="C30" t="n">
-        <v>25.7257173952682</v>
+        <v>25.5892377870502</v>
       </c>
       <c r="D30" t="n">
-        <v>29.9162577017405</v>
+        <v>30.1977681126079</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B31" t="n">
-        <v>27.6818037493275</v>
+        <v>26.4447016560463</v>
       </c>
       <c r="C31" t="n">
-        <v>24.8377467837505</v>
+        <v>24.14269453107</v>
       </c>
       <c r="D31" t="n">
-        <v>30.5258607149045</v>
+        <v>28.7467087810227</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B32" t="n">
-        <v>27.893502949829</v>
+        <v>29.0034502172748</v>
       </c>
       <c r="C32" t="n">
-        <v>25.5892377870502</v>
+        <v>25.8663274241883</v>
       </c>
       <c r="D32" t="n">
-        <v>30.1977681126079</v>
+        <v>32.1405730103613</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>26.4447016560463</v>
+        <v>23.7925359976382</v>
       </c>
       <c r="C33" t="n">
-        <v>24.14269453107</v>
+        <v>22.4533074894758</v>
       </c>
       <c r="D33" t="n">
-        <v>28.7467087810227</v>
+        <v>25.1317645058005</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>29.0034502172748</v>
+        <v>26.3869099551691</v>
       </c>
       <c r="C34" t="n">
-        <v>25.8663274241883</v>
+        <v>25.2573013744177</v>
       </c>
       <c r="D34" t="n">
-        <v>32.1405730103613</v>
+        <v>27.5165185359205</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B35" t="n">
-        <v>23.7925359976382</v>
+        <v>18.5840386333021</v>
       </c>
       <c r="C35" t="n">
-        <v>22.4533074894758</v>
+        <v>17.9670216706181</v>
       </c>
       <c r="D35" t="n">
-        <v>25.1317645058005</v>
+        <v>19.2010555959861</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
@@ -1012,16 +1009,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B36" t="n">
-        <v>31.6880266028203</v>
+        <v>19.5433388869069</v>
       </c>
       <c r="C36" t="n">
-        <v>29.8704070714838</v>
+        <v>18.6183817086331</v>
       </c>
       <c r="D36" t="n">
-        <v>33.5056461341568</v>
+        <v>20.4682960651808</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -1029,16 +1026,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B37" t="n">
-        <v>26.3869099551691</v>
+        <v>17.1860296020143</v>
       </c>
       <c r="C37" t="n">
-        <v>25.2573013744177</v>
+        <v>15.3280657963589</v>
       </c>
       <c r="D37" t="n">
-        <v>27.5165185359205</v>
+        <v>19.0439934076697</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -1046,152 +1043,152 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B38" t="n">
-        <v>18.5840386333021</v>
+        <v>18.4088216404429</v>
       </c>
       <c r="C38" t="n">
-        <v>17.9671758541937</v>
+        <v>16.7021601443635</v>
       </c>
       <c r="D38" t="n">
-        <v>19.2009014124105</v>
+        <v>20.1154831365224</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>19.5433388869069</v>
+        <v>19.818563990037</v>
       </c>
       <c r="C39" t="n">
-        <v>18.6186128419952</v>
+        <v>17.6677037163259</v>
       </c>
       <c r="D39" t="n">
-        <v>20.4680649318187</v>
+        <v>21.969424263748</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>17.1860296020143</v>
+        <v>22.3196671679238</v>
       </c>
       <c r="C40" t="n">
-        <v>15.3280657963589</v>
+        <v>18.870166935778</v>
       </c>
       <c r="D40" t="n">
-        <v>19.0439934076697</v>
+        <v>25.7691674000696</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>18.4088216404429</v>
+        <v>24.1943763140344</v>
       </c>
       <c r="C41" t="n">
-        <v>16.7021601443635</v>
+        <v>21.7435648832742</v>
       </c>
       <c r="D41" t="n">
-        <v>20.1154831365224</v>
+        <v>26.6451877447946</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>19.818563990037</v>
+        <v>18.3974341803098</v>
       </c>
       <c r="C42" t="n">
-        <v>17.6677037163259</v>
+        <v>15.9996020259039</v>
       </c>
       <c r="D42" t="n">
-        <v>21.969424263748</v>
+        <v>20.7952663347158</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B43" t="n">
-        <v>22.3196671679238</v>
+        <v>20.9791784497811</v>
       </c>
       <c r="C43" t="n">
-        <v>18.870166935778</v>
+        <v>17.8568777231141</v>
       </c>
       <c r="D43" t="n">
-        <v>25.7691674000696</v>
+        <v>24.101479176448</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B44" t="n">
-        <v>24.1943763140344</v>
+        <v>14.7145599857929</v>
       </c>
       <c r="C44" t="n">
-        <v>21.7435648832742</v>
+        <v>13.4191286852481</v>
       </c>
       <c r="D44" t="n">
-        <v>26.6451877447946</v>
+        <v>16.0099912863377</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B45" t="n">
-        <v>18.3974341803098</v>
+        <v>18.8176682846185</v>
       </c>
       <c r="C45" t="n">
-        <v>15.9996020259039</v>
+        <v>17.6445715829381</v>
       </c>
       <c r="D45" t="n">
-        <v>20.7952663347158</v>
+        <v>19.9907649862988</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>20.9791784497811</v>
+        <v>18.2790863468141</v>
       </c>
       <c r="C46" t="n">
-        <v>17.8568777231141</v>
+        <v>17.7085341607749</v>
       </c>
       <c r="D46" t="n">
-        <v>24.101479176448</v>
+        <v>18.8496385328533</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
@@ -1199,16 +1196,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>14.7145599857929</v>
+        <v>18.6833061988999</v>
       </c>
       <c r="C47" t="n">
-        <v>13.4191286852481</v>
+        <v>17.8434611376805</v>
       </c>
       <c r="D47" t="n">
-        <v>16.0099912863377</v>
+        <v>19.5231512601193</v>
       </c>
       <c r="E47" t="s">
         <v>20</v>
@@ -1216,16 +1213,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B48" t="n">
-        <v>21.2906279684643</v>
+        <v>18.1032368372531</v>
       </c>
       <c r="C48" t="n">
-        <v>19.7933126212893</v>
+        <v>16.0341261996304</v>
       </c>
       <c r="D48" t="n">
-        <v>22.7879433156394</v>
+        <v>20.1723474748758</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -1233,16 +1230,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B49" t="n">
-        <v>18.8176682846185</v>
+        <v>19.9652665557326</v>
       </c>
       <c r="C49" t="n">
-        <v>17.6445715829381</v>
+        <v>18.1942978345442</v>
       </c>
       <c r="D49" t="n">
-        <v>19.9907649862988</v>
+        <v>21.736235276921</v>
       </c>
       <c r="E49" t="s">
         <v>20</v>
@@ -1250,135 +1247,135 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B50" t="n">
-        <v>18.2790863468141</v>
+        <v>18.4768491708055</v>
       </c>
       <c r="C50" t="n">
-        <v>17.7086767334779</v>
+        <v>16.7881690779676</v>
       </c>
       <c r="D50" t="n">
-        <v>18.8494959601504</v>
+        <v>20.1655292636434</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B51" t="n">
-        <v>18.6833061988999</v>
+        <v>17.2467117399754</v>
       </c>
       <c r="C51" t="n">
-        <v>17.8436710027609</v>
+        <v>15.0456041122394</v>
       </c>
       <c r="D51" t="n">
-        <v>19.5229413950389</v>
+        <v>19.4478193677113</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B52" t="n">
-        <v>18.1032368372531</v>
+        <v>16.210725726805</v>
       </c>
       <c r="C52" t="n">
-        <v>16.0341261996304</v>
+        <v>14.47444109969</v>
       </c>
       <c r="D52" t="n">
-        <v>20.1723474748758</v>
+        <v>17.9470103539201</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B53" t="n">
-        <v>19.9652665557326</v>
+        <v>20.4222649809054</v>
       </c>
       <c r="C53" t="n">
-        <v>18.1942978345442</v>
+        <v>18.1558583037539</v>
       </c>
       <c r="D53" t="n">
-        <v>21.736235276921</v>
+        <v>22.6886716580568</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B54" t="n">
-        <v>18.4768491708055</v>
+        <v>18.7170006502281</v>
       </c>
       <c r="C54" t="n">
-        <v>16.7881690779676</v>
+        <v>15.5590554218317</v>
       </c>
       <c r="D54" t="n">
-        <v>20.1655292636434</v>
+        <v>21.8749458786244</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B55" t="n">
-        <v>17.2467117399754</v>
+        <v>17.7049808040103</v>
       </c>
       <c r="C55" t="n">
-        <v>15.0456041122394</v>
+        <v>16.2815627940052</v>
       </c>
       <c r="D55" t="n">
-        <v>19.4478193677113</v>
+        <v>19.1283988140154</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B56" t="n">
-        <v>16.210725726805</v>
+        <v>17.7140126023854</v>
       </c>
       <c r="C56" t="n">
-        <v>14.47444109969</v>
+        <v>16.6641188900468</v>
       </c>
       <c r="D56" t="n">
-        <v>17.9470103539201</v>
+        <v>18.763906314724</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B57" t="n">
-        <v>20.4222649809054</v>
+        <v>16.7223157348188</v>
       </c>
       <c r="C57" t="n">
-        <v>18.1558583037539</v>
+        <v>16.1686354888607</v>
       </c>
       <c r="D57" t="n">
-        <v>22.6886716580568</v>
+        <v>17.2759959807769</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -1386,16 +1383,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>18.7170006502281</v>
+        <v>16.4332355712248</v>
       </c>
       <c r="C58" t="n">
-        <v>15.5590554218317</v>
+        <v>15.6151116591389</v>
       </c>
       <c r="D58" t="n">
-        <v>21.8749458786244</v>
+        <v>17.2513594833107</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -1403,16 +1400,16 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>17.7049808040103</v>
+        <v>14.4237243458191</v>
       </c>
       <c r="C59" t="n">
-        <v>16.2815627940052</v>
+        <v>12.7075196552298</v>
       </c>
       <c r="D59" t="n">
-        <v>19.1283988140154</v>
+        <v>16.1399290364084</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -1420,16 +1417,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B60" t="n">
-        <v>19.6336316839714</v>
+        <v>16.5958620189816</v>
       </c>
       <c r="C60" t="n">
-        <v>18.1645701005951</v>
+        <v>14.6782804137272</v>
       </c>
       <c r="D60" t="n">
-        <v>21.1026932673476</v>
+        <v>18.513443624236</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -1437,16 +1434,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B61" t="n">
-        <v>17.7140126023854</v>
+        <v>18.1019870829628</v>
       </c>
       <c r="C61" t="n">
-        <v>16.6641188900468</v>
+        <v>16.5087552567187</v>
       </c>
       <c r="D61" t="n">
-        <v>18.763906314724</v>
+        <v>19.6952189092068</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
@@ -1454,118 +1451,118 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B62" t="n">
-        <v>16.7223157348188</v>
+        <v>14.2384576095474</v>
       </c>
       <c r="C62" t="n">
-        <v>16.1687738455109</v>
+        <v>12.4097299385544</v>
       </c>
       <c r="D62" t="n">
-        <v>17.2758576241267</v>
+        <v>16.0671852805405</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B63" t="n">
-        <v>16.4332355712248</v>
+        <v>19.3237941638536</v>
       </c>
       <c r="C63" t="n">
-        <v>15.6153160964197</v>
+        <v>17.3204562490024</v>
       </c>
       <c r="D63" t="n">
-        <v>17.2511550460299</v>
+        <v>21.3271320787048</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B64" t="n">
-        <v>14.4237243458191</v>
+        <v>14.9129879392616</v>
       </c>
       <c r="C64" t="n">
-        <v>12.7075196552298</v>
+        <v>12.6676188133698</v>
       </c>
       <c r="D64" t="n">
-        <v>16.1399290364084</v>
+        <v>17.1583570651535</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B65" t="n">
-        <v>16.5958620189816</v>
+        <v>17.639977096944</v>
       </c>
       <c r="C65" t="n">
-        <v>14.6782804137272</v>
+        <v>14.9240548407714</v>
       </c>
       <c r="D65" t="n">
-        <v>18.513443624236</v>
+        <v>20.3558993531165</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B66" t="n">
-        <v>18.1019870829628</v>
+        <v>15.9779234610467</v>
       </c>
       <c r="C66" t="n">
-        <v>16.5087552567187</v>
+        <v>14.5525384282777</v>
       </c>
       <c r="D66" t="n">
-        <v>19.6952189092068</v>
+        <v>17.4033084938156</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B67" t="n">
-        <v>14.2384576095474</v>
+        <v>16.7126947567179</v>
       </c>
       <c r="C67" t="n">
-        <v>12.4097299385544</v>
+        <v>15.7084970354776</v>
       </c>
       <c r="D67" t="n">
-        <v>16.0671852805405</v>
+        <v>17.7168924779581</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B68" t="n">
-        <v>19.3237941638536</v>
+        <v>16.2405917484416</v>
       </c>
       <c r="C68" t="n">
-        <v>17.3204562490024</v>
+        <v>15.7114679377955</v>
       </c>
       <c r="D68" t="n">
-        <v>21.3271320787048</v>
+        <v>16.7697155590877</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -1573,16 +1570,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B69" t="n">
-        <v>14.9129879392616</v>
+        <v>17.2041871605458</v>
       </c>
       <c r="C69" t="n">
-        <v>12.6676188133698</v>
+        <v>16.4310977042287</v>
       </c>
       <c r="D69" t="n">
-        <v>17.1583570651535</v>
+        <v>17.9772766168629</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -1590,16 +1587,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B70" t="n">
-        <v>17.639977096944</v>
+        <v>17.4846630418904</v>
       </c>
       <c r="C70" t="n">
-        <v>14.9240548407714</v>
+        <v>15.5737392576678</v>
       </c>
       <c r="D70" t="n">
-        <v>20.3558993531165</v>
+        <v>19.3955868261129</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -1607,16 +1604,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B71" t="n">
-        <v>15.9779234610467</v>
+        <v>18.7737072682762</v>
       </c>
       <c r="C71" t="n">
-        <v>14.5525384282777</v>
+        <v>17.1786642786786</v>
       </c>
       <c r="D71" t="n">
-        <v>17.4033084938156</v>
+        <v>20.3687502578738</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -1624,16 +1621,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B72" t="n">
-        <v>20.5511153680026</v>
+        <v>18.0960670536168</v>
       </c>
       <c r="C72" t="n">
-        <v>18.8187115219191</v>
+        <v>16.4565140199525</v>
       </c>
       <c r="D72" t="n">
-        <v>22.2835192140861</v>
+        <v>19.7356200872811</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
@@ -1641,16 +1638,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B73" t="n">
-        <v>16.7126947567179</v>
+        <v>17.1281660531501</v>
       </c>
       <c r="C73" t="n">
-        <v>15.7084970354776</v>
+        <v>14.0064407329396</v>
       </c>
       <c r="D73" t="n">
-        <v>17.7168924779581</v>
+        <v>20.2498913733607</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -1658,206 +1655,87 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B74" t="n">
-        <v>16.2405917484416</v>
+        <v>14.9457121683135</v>
       </c>
       <c r="C74" t="n">
-        <v>15.7116001581493</v>
+        <v>13.1173336539701</v>
       </c>
       <c r="D74" t="n">
-        <v>16.7695833387339</v>
+        <v>16.7740906826569</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B75" t="n">
-        <v>17.2041871605458</v>
+        <v>16.2618759164225</v>
       </c>
       <c r="C75" t="n">
-        <v>16.4312908880532</v>
+        <v>14.5361453632902</v>
       </c>
       <c r="D75" t="n">
-        <v>17.9770834330384</v>
+        <v>17.9876064695549</v>
       </c>
       <c r="E75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B76" t="n">
-        <v>17.4846630418904</v>
+        <v>16.9879596586077</v>
       </c>
       <c r="C76" t="n">
-        <v>15.5737392576678</v>
+        <v>14.0669037337682</v>
       </c>
       <c r="D76" t="n">
-        <v>19.3955868261129</v>
+        <v>19.9090155834473</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B77" t="n">
-        <v>18.7737072682762</v>
+        <v>14.0638042866307</v>
       </c>
       <c r="C77" t="n">
-        <v>17.1786642786786</v>
+        <v>12.9045274456188</v>
       </c>
       <c r="D77" t="n">
-        <v>20.3687502578738</v>
+        <v>15.2230811276426</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B78" t="n">
-        <v>18.0960670536168</v>
+        <v>15.5556817545784</v>
       </c>
       <c r="C78" t="n">
-        <v>16.4565140199525</v>
+        <v>14.5412204070847</v>
       </c>
       <c r="D78" t="n">
-        <v>19.7356200872811</v>
+        <v>16.570143102072</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" t="n">
-        <v>17.1281660531501</v>
-      </c>
-      <c r="C79" t="n">
-        <v>14.0064407329396</v>
-      </c>
-      <c r="D79" t="n">
-        <v>20.2498913733607</v>
-      </c>
-      <c r="E79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" t="n">
-        <v>14.9457121683135</v>
-      </c>
-      <c r="C80" t="n">
-        <v>13.1173336539701</v>
-      </c>
-      <c r="D80" t="n">
-        <v>16.7740906826569</v>
-      </c>
-      <c r="E80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="n">
-        <v>16.2618759164225</v>
-      </c>
-      <c r="C81" t="n">
-        <v>14.5361453632902</v>
-      </c>
-      <c r="D81" t="n">
-        <v>17.9876064695549</v>
-      </c>
-      <c r="E81" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" t="n">
-        <v>16.9879596586077</v>
-      </c>
-      <c r="C82" t="n">
-        <v>14.0669037337682</v>
-      </c>
-      <c r="D82" t="n">
-        <v>19.9090155834473</v>
-      </c>
-      <c r="E82" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" t="n">
-        <v>14.0638042866307</v>
-      </c>
-      <c r="C83" t="n">
-        <v>12.9045274456188</v>
-      </c>
-      <c r="D83" t="n">
-        <v>15.2230811276426</v>
-      </c>
-      <c r="E83" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" t="n">
-        <v>19.2949694188511</v>
-      </c>
-      <c r="C84" t="n">
-        <v>17.4801628447624</v>
-      </c>
-      <c r="D84" t="n">
-        <v>21.1097759929397</v>
-      </c>
-      <c r="E84" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" t="n">
-        <v>15.5556817545784</v>
-      </c>
-      <c r="C85" t="n">
-        <v>14.5412204070847</v>
-      </c>
-      <c r="D85" t="n">
-        <v>16.570143102072</v>
-      </c>
-      <c r="E85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_main_means_nolegend.xlsx
+++ b/xlsx/country_comparison/split_main_means_nolegend.xlsx
@@ -32,7 +32,8 @@
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Global: Education, Healthcare and&lt;br&gt;Renewable energy in low-income countries</t>
+    <t xml:space="preserve">Global: Education, Healthcare and 
+**test**Renewable energy in low-income countries</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -68,16 +69,21 @@
     <t xml:space="preserve">Domestic: Education and Healthcare</t>
   </si>
   <si>
-    <t xml:space="preserve">Share allocated to Global spending options&lt;br&gt;when 5 out of 13 options are randomly selected&lt;br&gt;(4 out of 13 being of Global nature)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Education and Healthcare&lt;br&gt;in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Renewable energy and&lt;br&gt;infrastructure to cope with climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Loss and Damage Fund (to&lt;br&gt;rebuild after climate disasters)</t>
+    <t xml:space="preserve">Share allocated to Global spending options 
+when 5 out of 13 options are randomly selected 
+(4 out of 13 being of Global nature)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Education and Healthcare 
+**test**in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Renewable energy and 
+**test**infrastructure to cope with climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Loss and Damage Fund (to 
+**test**rebuild after climate disasters)</t>
   </si>
   <si>
     <t xml:space="preserve">Global: Forestation and biodiversity projects</t>

--- a/xlsx/country_comparison/split_main_means_nolegend.xlsx
+++ b/xlsx/country_comparison/split_main_means_nolegend.xlsx
@@ -32,8 +32,7 @@
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Global: Education, Healthcare and 
-**test**Renewable energy in low-income countries</t>
+    <t xml:space="preserve">Global: Education, Healthcare and&lt;br&gt;Renewable energy in low-income countries</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -69,21 +68,16 @@
     <t xml:space="preserve">Domestic: Education and Healthcare</t>
   </si>
   <si>
-    <t xml:space="preserve">Share allocated to Global spending options 
-when 5 out of 13 options are randomly selected 
-(4 out of 13 being of Global nature)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Education and Healthcare 
-**test**in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Renewable energy and 
-**test**infrastructure to cope with climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global: Loss and Damage Fund (to 
-**test**rebuild after climate disasters)</t>
+    <t xml:space="preserve">Share allocated to Global spending options&lt;br&gt;when 5 out of 13 options are randomly selected&lt;br&gt;(4 out of 13 being of Global nature)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Education and Healthcare&lt;br&gt;in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Renewable energy and&lt;br&gt;infrastructure to cope with climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global: Loss and Damage Fund (to&lt;br&gt;rebuild after climate disasters)</t>
   </si>
   <si>
     <t xml:space="preserve">Global: Forestation and biodiversity projects</t>
@@ -443,10 +437,10 @@
         <v>17.4778628081766</v>
       </c>
       <c r="C2" t="n">
-        <v>17.1175085633068</v>
+        <v>17.1175986105978</v>
       </c>
       <c r="D2" t="n">
-        <v>17.8382170530464</v>
+        <v>17.8381270057554</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -460,10 +454,10 @@
         <v>18.6743117629875</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1090726500468</v>
+        <v>18.1092138950899</v>
       </c>
       <c r="D3" t="n">
-        <v>19.2395508759282</v>
+        <v>19.2394096308851</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -630,10 +624,10 @@
         <v>25.8176804364833</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4206838089672</v>
+        <v>25.4207830126572</v>
       </c>
       <c r="D13" t="n">
-        <v>26.2146770639993</v>
+        <v>26.2145778603093</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -647,10 +641,10 @@
         <v>28.6687645878041</v>
       </c>
       <c r="C14" t="n">
-        <v>28.0554612774864</v>
+        <v>28.0556145330742</v>
       </c>
       <c r="D14" t="n">
-        <v>29.2820678981219</v>
+        <v>29.2819146425341</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -817,10 +811,10 @@
         <v>26.888852791522</v>
       </c>
       <c r="C24" t="n">
-        <v>26.2839087433422</v>
+        <v>26.2840599100719</v>
       </c>
       <c r="D24" t="n">
-        <v>27.4937968397017</v>
+        <v>27.4936456729721</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -834,10 +828,10 @@
         <v>27.8767606881523</v>
       </c>
       <c r="C25" t="n">
-        <v>26.9614841523851</v>
+        <v>26.9617128666953</v>
       </c>
       <c r="D25" t="n">
-        <v>28.7920372239195</v>
+        <v>28.7918085096094</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -1004,10 +998,10 @@
         <v>18.5840386333021</v>
       </c>
       <c r="C35" t="n">
-        <v>17.9670216706181</v>
+        <v>17.9671758541937</v>
       </c>
       <c r="D35" t="n">
-        <v>19.2010555959861</v>
+        <v>19.2009014124105</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
@@ -1021,10 +1015,10 @@
         <v>19.5433388869069</v>
       </c>
       <c r="C36" t="n">
-        <v>18.6183817086331</v>
+        <v>18.6186128419952</v>
       </c>
       <c r="D36" t="n">
-        <v>20.4682960651808</v>
+        <v>20.4680649318187</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -1191,10 +1185,10 @@
         <v>18.2790863468141</v>
       </c>
       <c r="C46" t="n">
-        <v>17.7085341607749</v>
+        <v>17.7086767334779</v>
       </c>
       <c r="D46" t="n">
-        <v>18.8496385328533</v>
+        <v>18.8494959601504</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
@@ -1208,10 +1202,10 @@
         <v>18.6833061988999</v>
       </c>
       <c r="C47" t="n">
-        <v>17.8434611376805</v>
+        <v>17.8436710027609</v>
       </c>
       <c r="D47" t="n">
-        <v>19.5231512601193</v>
+        <v>19.5229413950389</v>
       </c>
       <c r="E47" t="s">
         <v>20</v>
@@ -1378,10 +1372,10 @@
         <v>16.7223157348188</v>
       </c>
       <c r="C57" t="n">
-        <v>16.1686354888607</v>
+        <v>16.1687738455109</v>
       </c>
       <c r="D57" t="n">
-        <v>17.2759959807769</v>
+        <v>17.2758576241267</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -1395,10 +1389,10 @@
         <v>16.4332355712248</v>
       </c>
       <c r="C58" t="n">
-        <v>15.6151116591389</v>
+        <v>15.6153160964197</v>
       </c>
       <c r="D58" t="n">
-        <v>17.2513594833107</v>
+        <v>17.2511550460299</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -1565,10 +1559,10 @@
         <v>16.2405917484416</v>
       </c>
       <c r="C68" t="n">
-        <v>15.7114679377955</v>
+        <v>15.7116001581493</v>
       </c>
       <c r="D68" t="n">
-        <v>16.7697155590877</v>
+        <v>16.7695833387339</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -1582,10 +1576,10 @@
         <v>17.2041871605458</v>
       </c>
       <c r="C69" t="n">
-        <v>16.4310977042287</v>
+        <v>16.4312908880532</v>
       </c>
       <c r="D69" t="n">
-        <v>17.9772766168629</v>
+        <v>17.9770834330384</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>

--- a/xlsx/country_comparison/split_main_means_nolegend.xlsx
+++ b/xlsx/country_comparison/split_main_means_nolegend.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -437,10 +440,10 @@
         <v>17.4778628081766</v>
       </c>
       <c r="C2" t="n">
-        <v>17.1175986105978</v>
+        <v>17.1175085633068</v>
       </c>
       <c r="D2" t="n">
-        <v>17.8381270057554</v>
+        <v>17.8382170530464</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -454,10 +457,10 @@
         <v>18.6743117629875</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1092138950899</v>
+        <v>18.1090726500468</v>
       </c>
       <c r="D3" t="n">
-        <v>19.2394096308851</v>
+        <v>19.2395508759282</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -604,13 +607,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3020839614069</v>
+        <v>20.9468538366264</v>
       </c>
       <c r="C12" t="n">
-        <v>16.6285285100235</v>
+        <v>19.9315344407993</v>
       </c>
       <c r="D12" t="n">
-        <v>17.9756394127904</v>
+        <v>21.9621732324535</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -618,203 +621,203 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>25.8176804364833</v>
+        <v>17.3020839614069</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4207830126572</v>
+        <v>16.6285285100235</v>
       </c>
       <c r="D13" t="n">
-        <v>26.2145778603093</v>
+        <v>17.9756394127904</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>28.6687645878041</v>
+        <v>25.8176804364833</v>
       </c>
       <c r="C14" t="n">
-        <v>28.0556145330742</v>
+        <v>25.4206838089672</v>
       </c>
       <c r="D14" t="n">
-        <v>29.2819146425341</v>
+        <v>26.2146770639993</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>28.2405220667589</v>
+        <v>28.6687645878041</v>
       </c>
       <c r="C15" t="n">
-        <v>26.8257366114272</v>
+        <v>28.0554612774864</v>
       </c>
       <c r="D15" t="n">
-        <v>29.6553075220906</v>
+        <v>29.2820678981219</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>28.1341163074923</v>
+        <v>28.2405220667589</v>
       </c>
       <c r="C16" t="n">
-        <v>26.8557798419464</v>
+        <v>26.8257366114272</v>
       </c>
       <c r="D16" t="n">
-        <v>29.4124527730382</v>
+        <v>29.6553075220906</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="n">
-        <v>26.7831696488847</v>
+        <v>28.1341163074923</v>
       </c>
       <c r="C17" t="n">
-        <v>25.2988047281253</v>
+        <v>26.8557798419464</v>
       </c>
       <c r="D17" t="n">
-        <v>28.2675345696441</v>
+        <v>29.4124527730382</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>27.1533761976075</v>
+        <v>26.7831696488847</v>
       </c>
       <c r="C18" t="n">
-        <v>25.4291815584187</v>
+        <v>25.2988047281253</v>
       </c>
       <c r="D18" t="n">
-        <v>28.8775708367963</v>
+        <v>28.2675345696441</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>31.8883460760912</v>
+        <v>27.1533761976075</v>
       </c>
       <c r="C19" t="n">
-        <v>30.191726604158</v>
+        <v>25.4291815584187</v>
       </c>
       <c r="D19" t="n">
-        <v>33.5849655480244</v>
+        <v>28.8775708367963</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>30.27503644968</v>
+        <v>31.8883460760912</v>
       </c>
       <c r="C20" t="n">
-        <v>28.8166498489646</v>
+        <v>30.191726604158</v>
       </c>
       <c r="D20" t="n">
-        <v>31.7334230503953</v>
+        <v>33.5849655480244</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>26.9055230286109</v>
+        <v>30.27503644968</v>
       </c>
       <c r="C21" t="n">
-        <v>25.1982188740622</v>
+        <v>28.8166498489646</v>
       </c>
       <c r="D21" t="n">
-        <v>28.6128271831596</v>
+        <v>31.7334230503953</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="n">
-        <v>24.9676333375889</v>
+        <v>26.9055230286109</v>
       </c>
       <c r="C22" t="n">
-        <v>24.0996816084345</v>
+        <v>25.1982188740622</v>
       </c>
       <c r="D22" t="n">
-        <v>25.8355850667434</v>
+        <v>28.6128271831596</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>23.1977463905367</v>
+        <v>24.9676333375889</v>
       </c>
       <c r="C23" t="n">
-        <v>22.4841233151793</v>
+        <v>24.0996816084345</v>
       </c>
       <c r="D23" t="n">
-        <v>23.9113694658941</v>
+        <v>25.8355850667434</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>26.888852791522</v>
+        <v>23.7822817741879</v>
       </c>
       <c r="C24" t="n">
-        <v>26.2840599100719</v>
+        <v>22.6789302221682</v>
       </c>
       <c r="D24" t="n">
-        <v>27.4936456729721</v>
+        <v>24.8856333262076</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -822,16 +825,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>27.8767606881523</v>
+        <v>23.1977463905367</v>
       </c>
       <c r="C25" t="n">
-        <v>26.9617128666953</v>
+        <v>22.4841233151793</v>
       </c>
       <c r="D25" t="n">
-        <v>28.7918085096094</v>
+        <v>23.9113694658941</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -839,169 +842,169 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>26.6311851475846</v>
+        <v>26.888852791522</v>
       </c>
       <c r="C26" t="n">
-        <v>24.4936853417207</v>
+        <v>26.2839087433422</v>
       </c>
       <c r="D26" t="n">
-        <v>28.7686849534485</v>
+        <v>27.4937968397017</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>29.6140991797367</v>
+        <v>27.8767606881523</v>
       </c>
       <c r="C27" t="n">
-        <v>27.7227795100033</v>
+        <v>26.9614841523851</v>
       </c>
       <c r="D27" t="n">
-        <v>31.5054188494702</v>
+        <v>28.7920372239195</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>27.8209875485043</v>
+        <v>26.6311851475846</v>
       </c>
       <c r="C28" t="n">
-        <v>25.7257173952682</v>
+        <v>24.4936853417207</v>
       </c>
       <c r="D28" t="n">
-        <v>29.9162577017405</v>
+        <v>28.7686849534485</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>27.6818037493275</v>
+        <v>29.6140991797367</v>
       </c>
       <c r="C29" t="n">
-        <v>24.8377467837505</v>
+        <v>27.7227795100033</v>
       </c>
       <c r="D29" t="n">
-        <v>30.5258607149045</v>
+        <v>31.5054188494702</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>27.893502949829</v>
+        <v>27.8209875485043</v>
       </c>
       <c r="C30" t="n">
-        <v>25.5892377870502</v>
+        <v>25.7257173952682</v>
       </c>
       <c r="D30" t="n">
-        <v>30.1977681126079</v>
+        <v>29.9162577017405</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="n">
-        <v>26.4447016560463</v>
+        <v>27.6818037493275</v>
       </c>
       <c r="C31" t="n">
-        <v>24.14269453107</v>
+        <v>24.8377467837505</v>
       </c>
       <c r="D31" t="n">
-        <v>28.7467087810227</v>
+        <v>30.5258607149045</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>29.0034502172748</v>
+        <v>27.893502949829</v>
       </c>
       <c r="C32" t="n">
-        <v>25.8663274241883</v>
+        <v>25.5892377870502</v>
       </c>
       <c r="D32" t="n">
-        <v>32.1405730103613</v>
+        <v>30.1977681126079</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" t="n">
-        <v>23.7925359976382</v>
+        <v>26.4447016560463</v>
       </c>
       <c r="C33" t="n">
-        <v>22.4533074894758</v>
+        <v>24.14269453107</v>
       </c>
       <c r="D33" t="n">
-        <v>25.1317645058005</v>
+        <v>28.7467087810227</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
-        <v>26.3869099551691</v>
+        <v>29.0034502172748</v>
       </c>
       <c r="C34" t="n">
-        <v>25.2573013744177</v>
+        <v>25.8663274241883</v>
       </c>
       <c r="D34" t="n">
-        <v>27.5165185359205</v>
+        <v>32.1405730103613</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>18.5840386333021</v>
+        <v>23.7925359976382</v>
       </c>
       <c r="C35" t="n">
-        <v>17.9671758541937</v>
+        <v>22.4533074894758</v>
       </c>
       <c r="D35" t="n">
-        <v>19.2009014124105</v>
+        <v>25.1317645058005</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
@@ -1009,16 +1012,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>19.5433388869069</v>
+        <v>31.6880266028203</v>
       </c>
       <c r="C36" t="n">
-        <v>18.6186128419952</v>
+        <v>29.8704070714838</v>
       </c>
       <c r="D36" t="n">
-        <v>20.4680649318187</v>
+        <v>33.5056461341568</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -1026,16 +1029,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>17.1860296020143</v>
+        <v>26.3869099551691</v>
       </c>
       <c r="C37" t="n">
-        <v>15.3280657963589</v>
+        <v>25.2573013744177</v>
       </c>
       <c r="D37" t="n">
-        <v>19.0439934076697</v>
+        <v>27.5165185359205</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -1043,152 +1046,152 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>18.4088216404429</v>
+        <v>18.5840386333021</v>
       </c>
       <c r="C38" t="n">
-        <v>16.7021601443635</v>
+        <v>17.9670216706181</v>
       </c>
       <c r="D38" t="n">
-        <v>20.1154831365224</v>
+        <v>19.2010555959861</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>19.818563990037</v>
+        <v>19.5433388869069</v>
       </c>
       <c r="C39" t="n">
-        <v>17.6677037163259</v>
+        <v>18.6183817086331</v>
       </c>
       <c r="D39" t="n">
-        <v>21.969424263748</v>
+        <v>20.4682960651808</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40" t="n">
-        <v>22.3196671679238</v>
+        <v>17.1860296020143</v>
       </c>
       <c r="C40" t="n">
-        <v>18.870166935778</v>
+        <v>15.3280657963589</v>
       </c>
       <c r="D40" t="n">
-        <v>25.7691674000696</v>
+        <v>19.0439934076697</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B41" t="n">
-        <v>24.1943763140344</v>
+        <v>18.4088216404429</v>
       </c>
       <c r="C41" t="n">
-        <v>21.7435648832742</v>
+        <v>16.7021601443635</v>
       </c>
       <c r="D41" t="n">
-        <v>26.6451877447946</v>
+        <v>20.1154831365224</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B42" t="n">
-        <v>18.3974341803098</v>
+        <v>19.818563990037</v>
       </c>
       <c r="C42" t="n">
-        <v>15.9996020259039</v>
+        <v>17.6677037163259</v>
       </c>
       <c r="D42" t="n">
-        <v>20.7952663347158</v>
+        <v>21.969424263748</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B43" t="n">
-        <v>20.9791784497811</v>
+        <v>22.3196671679238</v>
       </c>
       <c r="C43" t="n">
-        <v>17.8568777231141</v>
+        <v>18.870166935778</v>
       </c>
       <c r="D43" t="n">
-        <v>24.101479176448</v>
+        <v>25.7691674000696</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B44" t="n">
-        <v>14.7145599857929</v>
+        <v>24.1943763140344</v>
       </c>
       <c r="C44" t="n">
-        <v>13.4191286852481</v>
+        <v>21.7435648832742</v>
       </c>
       <c r="D44" t="n">
-        <v>16.0099912863377</v>
+        <v>26.6451877447946</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B45" t="n">
-        <v>18.8176682846185</v>
+        <v>18.3974341803098</v>
       </c>
       <c r="C45" t="n">
-        <v>17.6445715829381</v>
+        <v>15.9996020259039</v>
       </c>
       <c r="D45" t="n">
-        <v>19.9907649862988</v>
+        <v>20.7952663347158</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>18.2790863468141</v>
+        <v>20.9791784497811</v>
       </c>
       <c r="C46" t="n">
-        <v>17.7086767334779</v>
+        <v>17.8568777231141</v>
       </c>
       <c r="D46" t="n">
-        <v>18.8494959601504</v>
+        <v>24.101479176448</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
@@ -1196,16 +1199,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B47" t="n">
-        <v>18.6833061988999</v>
+        <v>14.7145599857929</v>
       </c>
       <c r="C47" t="n">
-        <v>17.8436710027609</v>
+        <v>13.4191286852481</v>
       </c>
       <c r="D47" t="n">
-        <v>19.5229413950389</v>
+        <v>16.0099912863377</v>
       </c>
       <c r="E47" t="s">
         <v>20</v>
@@ -1213,16 +1216,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>18.1032368372531</v>
+        <v>21.2906279684643</v>
       </c>
       <c r="C48" t="n">
-        <v>16.0341261996304</v>
+        <v>19.7933126212893</v>
       </c>
       <c r="D48" t="n">
-        <v>20.1723474748758</v>
+        <v>22.7879433156394</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -1230,16 +1233,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B49" t="n">
-        <v>19.9652665557326</v>
+        <v>18.8176682846185</v>
       </c>
       <c r="C49" t="n">
-        <v>18.1942978345442</v>
+        <v>17.6445715829381</v>
       </c>
       <c r="D49" t="n">
-        <v>21.736235276921</v>
+        <v>19.9907649862988</v>
       </c>
       <c r="E49" t="s">
         <v>20</v>
@@ -1247,135 +1250,135 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B50" t="n">
-        <v>18.4768491708055</v>
+        <v>18.2790863468141</v>
       </c>
       <c r="C50" t="n">
-        <v>16.7881690779676</v>
+        <v>17.7085341607749</v>
       </c>
       <c r="D50" t="n">
-        <v>20.1655292636434</v>
+        <v>18.8496385328533</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>17.2467117399754</v>
+        <v>18.6833061988999</v>
       </c>
       <c r="C51" t="n">
-        <v>15.0456041122394</v>
+        <v>17.8434611376805</v>
       </c>
       <c r="D51" t="n">
-        <v>19.4478193677113</v>
+        <v>19.5231512601193</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B52" t="n">
-        <v>16.210725726805</v>
+        <v>18.1032368372531</v>
       </c>
       <c r="C52" t="n">
-        <v>14.47444109969</v>
+        <v>16.0341261996304</v>
       </c>
       <c r="D52" t="n">
-        <v>17.9470103539201</v>
+        <v>20.1723474748758</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B53" t="n">
-        <v>20.4222649809054</v>
+        <v>19.9652665557326</v>
       </c>
       <c r="C53" t="n">
-        <v>18.1558583037539</v>
+        <v>18.1942978345442</v>
       </c>
       <c r="D53" t="n">
-        <v>22.6886716580568</v>
+        <v>21.736235276921</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>18.7170006502281</v>
+        <v>18.4768491708055</v>
       </c>
       <c r="C54" t="n">
-        <v>15.5590554218317</v>
+        <v>16.7881690779676</v>
       </c>
       <c r="D54" t="n">
-        <v>21.8749458786244</v>
+        <v>20.1655292636434</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B55" t="n">
-        <v>17.7049808040103</v>
+        <v>17.2467117399754</v>
       </c>
       <c r="C55" t="n">
-        <v>16.2815627940052</v>
+        <v>15.0456041122394</v>
       </c>
       <c r="D55" t="n">
-        <v>19.1283988140154</v>
+        <v>19.4478193677113</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B56" t="n">
-        <v>17.7140126023854</v>
+        <v>16.210725726805</v>
       </c>
       <c r="C56" t="n">
-        <v>16.6641188900468</v>
+        <v>14.47444109969</v>
       </c>
       <c r="D56" t="n">
-        <v>18.763906314724</v>
+        <v>17.9470103539201</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B57" t="n">
-        <v>16.7223157348188</v>
+        <v>20.4222649809054</v>
       </c>
       <c r="C57" t="n">
-        <v>16.1687738455109</v>
+        <v>18.1558583037539</v>
       </c>
       <c r="D57" t="n">
-        <v>17.2758576241267</v>
+        <v>22.6886716580568</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -1383,16 +1386,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B58" t="n">
-        <v>16.4332355712248</v>
+        <v>18.7170006502281</v>
       </c>
       <c r="C58" t="n">
-        <v>15.6153160964197</v>
+        <v>15.5590554218317</v>
       </c>
       <c r="D58" t="n">
-        <v>17.2511550460299</v>
+        <v>21.8749458786244</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -1400,16 +1403,16 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B59" t="n">
-        <v>14.4237243458191</v>
+        <v>17.7049808040103</v>
       </c>
       <c r="C59" t="n">
-        <v>12.7075196552298</v>
+        <v>16.2815627940052</v>
       </c>
       <c r="D59" t="n">
-        <v>16.1399290364084</v>
+        <v>19.1283988140154</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -1417,16 +1420,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>16.5958620189816</v>
+        <v>19.6336316839714</v>
       </c>
       <c r="C60" t="n">
-        <v>14.6782804137272</v>
+        <v>18.1645701005951</v>
       </c>
       <c r="D60" t="n">
-        <v>18.513443624236</v>
+        <v>21.1026932673476</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -1434,16 +1437,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B61" t="n">
-        <v>18.1019870829628</v>
+        <v>17.7140126023854</v>
       </c>
       <c r="C61" t="n">
-        <v>16.5087552567187</v>
+        <v>16.6641188900468</v>
       </c>
       <c r="D61" t="n">
-        <v>19.6952189092068</v>
+        <v>18.763906314724</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
@@ -1451,118 +1454,118 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>14.2384576095474</v>
+        <v>16.7223157348188</v>
       </c>
       <c r="C62" t="n">
-        <v>12.4097299385544</v>
+        <v>16.1686354888607</v>
       </c>
       <c r="D62" t="n">
-        <v>16.0671852805405</v>
+        <v>17.2759959807769</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>19.3237941638536</v>
+        <v>16.4332355712248</v>
       </c>
       <c r="C63" t="n">
-        <v>17.3204562490024</v>
+        <v>15.6151116591389</v>
       </c>
       <c r="D63" t="n">
-        <v>21.3271320787048</v>
+        <v>17.2513594833107</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B64" t="n">
-        <v>14.9129879392616</v>
+        <v>14.4237243458191</v>
       </c>
       <c r="C64" t="n">
-        <v>12.6676188133698</v>
+        <v>12.7075196552298</v>
       </c>
       <c r="D64" t="n">
-        <v>17.1583570651535</v>
+        <v>16.1399290364084</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B65" t="n">
-        <v>17.639977096944</v>
+        <v>16.5958620189816</v>
       </c>
       <c r="C65" t="n">
-        <v>14.9240548407714</v>
+        <v>14.6782804137272</v>
       </c>
       <c r="D65" t="n">
-        <v>20.3558993531165</v>
+        <v>18.513443624236</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B66" t="n">
-        <v>15.9779234610467</v>
+        <v>18.1019870829628</v>
       </c>
       <c r="C66" t="n">
-        <v>14.5525384282777</v>
+        <v>16.5087552567187</v>
       </c>
       <c r="D66" t="n">
-        <v>17.4033084938156</v>
+        <v>19.6952189092068</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B67" t="n">
-        <v>16.7126947567179</v>
+        <v>14.2384576095474</v>
       </c>
       <c r="C67" t="n">
-        <v>15.7084970354776</v>
+        <v>12.4097299385544</v>
       </c>
       <c r="D67" t="n">
-        <v>17.7168924779581</v>
+        <v>16.0671852805405</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B68" t="n">
-        <v>16.2405917484416</v>
+        <v>19.3237941638536</v>
       </c>
       <c r="C68" t="n">
-        <v>15.7116001581493</v>
+        <v>17.3204562490024</v>
       </c>
       <c r="D68" t="n">
-        <v>16.7695833387339</v>
+        <v>21.3271320787048</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -1570,16 +1573,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B69" t="n">
-        <v>17.2041871605458</v>
+        <v>14.9129879392616</v>
       </c>
       <c r="C69" t="n">
-        <v>16.4312908880532</v>
+        <v>12.6676188133698</v>
       </c>
       <c r="D69" t="n">
-        <v>17.9770834330384</v>
+        <v>17.1583570651535</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -1587,16 +1590,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B70" t="n">
-        <v>17.4846630418904</v>
+        <v>17.639977096944</v>
       </c>
       <c r="C70" t="n">
-        <v>15.5737392576678</v>
+        <v>14.9240548407714</v>
       </c>
       <c r="D70" t="n">
-        <v>19.3955868261129</v>
+        <v>20.3558993531165</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -1604,16 +1607,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B71" t="n">
-        <v>18.7737072682762</v>
+        <v>15.9779234610467</v>
       </c>
       <c r="C71" t="n">
-        <v>17.1786642786786</v>
+        <v>14.5525384282777</v>
       </c>
       <c r="D71" t="n">
-        <v>20.3687502578738</v>
+        <v>17.4033084938156</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -1621,16 +1624,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>18.0960670536168</v>
+        <v>20.5511153680026</v>
       </c>
       <c r="C72" t="n">
-        <v>16.4565140199525</v>
+        <v>18.8187115219191</v>
       </c>
       <c r="D72" t="n">
-        <v>19.7356200872811</v>
+        <v>22.2835192140861</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
@@ -1638,16 +1641,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B73" t="n">
-        <v>17.1281660531501</v>
+        <v>16.7126947567179</v>
       </c>
       <c r="C73" t="n">
-        <v>14.0064407329396</v>
+        <v>15.7084970354776</v>
       </c>
       <c r="D73" t="n">
-        <v>20.2498913733607</v>
+        <v>17.7168924779581</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -1655,87 +1658,206 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B74" t="n">
-        <v>14.9457121683135</v>
+        <v>16.2405917484416</v>
       </c>
       <c r="C74" t="n">
-        <v>13.1173336539701</v>
+        <v>15.7114679377955</v>
       </c>
       <c r="D74" t="n">
-        <v>16.7740906826569</v>
+        <v>16.7697155590877</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B75" t="n">
-        <v>16.2618759164225</v>
+        <v>17.2041871605458</v>
       </c>
       <c r="C75" t="n">
-        <v>14.5361453632902</v>
+        <v>16.4310977042287</v>
       </c>
       <c r="D75" t="n">
-        <v>17.9876064695549</v>
+        <v>17.9772766168629</v>
       </c>
       <c r="E75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B76" t="n">
-        <v>16.9879596586077</v>
+        <v>17.4846630418904</v>
       </c>
       <c r="C76" t="n">
-        <v>14.0669037337682</v>
+        <v>15.5737392576678</v>
       </c>
       <c r="D76" t="n">
-        <v>19.9090155834473</v>
+        <v>19.3955868261129</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B77" t="n">
-        <v>14.0638042866307</v>
+        <v>18.7737072682762</v>
       </c>
       <c r="C77" t="n">
-        <v>12.9045274456188</v>
+        <v>17.1786642786786</v>
       </c>
       <c r="D77" t="n">
-        <v>15.2230811276426</v>
+        <v>20.3687502578738</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="n">
+        <v>18.0960670536168</v>
+      </c>
+      <c r="C78" t="n">
+        <v>16.4565140199525</v>
+      </c>
+      <c r="D78" t="n">
+        <v>19.7356200872811</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="n">
+        <v>17.1281660531501</v>
+      </c>
+      <c r="C79" t="n">
+        <v>14.0064407329396</v>
+      </c>
+      <c r="D79" t="n">
+        <v>20.2498913733607</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="n">
+        <v>14.9457121683135</v>
+      </c>
+      <c r="C80" t="n">
+        <v>13.1173336539701</v>
+      </c>
+      <c r="D80" t="n">
+        <v>16.7740906826569</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="n">
+        <v>16.2618759164225</v>
+      </c>
+      <c r="C81" t="n">
+        <v>14.5361453632902</v>
+      </c>
+      <c r="D81" t="n">
+        <v>17.9876064695549</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="n">
+        <v>16.9879596586077</v>
+      </c>
+      <c r="C82" t="n">
+        <v>14.0669037337682</v>
+      </c>
+      <c r="D82" t="n">
+        <v>19.9090155834473</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="n">
+        <v>14.0638042866307</v>
+      </c>
+      <c r="C83" t="n">
+        <v>12.9045274456188</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15.2230811276426</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
         <v>16</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B84" t="n">
+        <v>19.2949694188511</v>
+      </c>
+      <c r="C84" t="n">
+        <v>17.4801628447624</v>
+      </c>
+      <c r="D84" t="n">
+        <v>21.1097759929397</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="n">
         <v>15.5556817545784</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C85" t="n">
         <v>14.5412204070847</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D85" t="n">
         <v>16.570143102072</v>
       </c>
-      <c r="E78" t="s">
-        <v>22</v>
+      <c r="E85" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
